--- a/src/data/4_comp_test.xlsx
+++ b/src/data/4_comp_test.xlsx
@@ -8,25 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\sns_modeling\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF4FFE7-8A70-445C-AFE2-1384A18A9B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAEDA4E-F431-49B0-9CB2-C152D5B9C412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20715" yWindow="5355" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system" sheetId="1" r:id="rId1"/>
     <sheet name="species" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -83,6 +92,12 @@
   </si>
   <si>
     <t>Species D</t>
+  </si>
+  <si>
+    <t>Cost cooling [$/kJ]</t>
+  </si>
+  <si>
+    <t>Cost heating [$/kJ]</t>
   </si>
 </sst>
 </file>
@@ -459,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,9 +485,11 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -482,16 +499,30 @@
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>85</v>
+      </c>
+      <c r="D2" s="1">
+        <f>1500/1000000</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <f>5000/1000000</f>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -504,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5B4ED9-9AA6-42DD-91B2-CD44C4CD8B29}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/src/data/4_comp_test.xlsx
+++ b/src/data/4_comp_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\sns_modeling\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\Braskem Project\test problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAEDA4E-F431-49B0-9CB2-C152D5B9C412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90A7201-DF41-455C-9615-8F9121CAE308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20715" yWindow="5355" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system" sheetId="1" r:id="rId1"/>
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5B4ED9-9AA6-42DD-91B2-CD44C4CD8B29}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
